--- a/wwwroot/reports/PaperTaskMachine2.xlsx
+++ b/wwwroot/reports/PaperTaskMachine2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>ใบแจ้งงาน MACHINE</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">CUTTING PLAN/SHOP DRAWING No. </t>
+  </si>
+  <si>
+    <t>DataField:Remark2</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1236,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -1423,7 +1426,9 @@
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="18"/>
+      <c r="A12" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1818,4 +1823,14 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<SyracuseOfficeCustomData>{"createMode":"plain_doc","forceRefresh":"0"}</SyracuseOfficeCustomData>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{879A7496-19A0-4466-87D2-868E718EFB2A}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>